--- a/CashFlow/DOV_cashflow.xlsx
+++ b/CashFlow/DOV_cashflow.xlsx
@@ -78,7 +78,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3462000000.0</v>
+        <v>-2966000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3413000000.0</v>
+        <v>10519000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2594542000.0</v>
+        <v>-1818000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1774684000.0</v>
+        <v>-44199000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>868171000.0</v>
+        <v>-45765000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-56870000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-6625000.0</v>
+        <v>3578000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-95636000.0</v>
+        <v>3614000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-65449000.0</v>
+        <v>2786622000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>13500000.0</v>
+        <v>1945509000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>36837000.0</v>
+        <v>1009082000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>8524000.0</v>
